--- a/ArtigoKrigingVsg/peaks/VirtualSamples.xlsx
+++ b/ArtigoKrigingVsg/peaks/VirtualSamples.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,10 +460,10 @@
         <v>-1.5</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.346262834575048</v>
+        <v>0.08373888865290463</v>
       </c>
     </row>
     <row r="3">
@@ -471,10 +471,10 @@
         <v>-1.5</v>
       </c>
       <c r="B3" t="n">
-        <v>-2</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08373888865290463</v>
+        <v>0.6620963141816841</v>
       </c>
     </row>
     <row r="4">
@@ -482,10 +482,10 @@
         <v>-1.5</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6620963141816841</v>
+        <v>-1.346262834575048</v>
       </c>
     </row>
     <row r="5">
@@ -493,32 +493,32 @@
         <v>-1.5</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.346262834575048</v>
+        <v>-0.4943307705808023</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-1.5</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9999999999999999</v>
+        <v>-2</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.4943307705808023</v>
+        <v>-2.416132529960544</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-1.5</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9080080539761659</v>
+        <v>0.1126821534401601</v>
       </c>
     </row>
     <row r="8">
@@ -537,10 +537,10 @@
         <v>-0.4999999999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>-2</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>-2.416132529960544</v>
+        <v>2.004075919298646</v>
       </c>
     </row>
     <row r="10">
@@ -548,43 +548,43 @@
         <v>-0.4999999999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.9999999999999999</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1126821534401601</v>
+        <v>3.957524834748929</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.0168840571388518</v>
+        <v>-3.392024819143388</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9999999999999999</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>2.004075919298646</v>
+        <v>-0.6376064093633786</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>3.957524834748929</v>
+        <v>3.341563559628241</v>
       </c>
     </row>
     <row r="14">
@@ -592,208 +592,208 @@
         <v>0.4999999999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>-3.392024819143388</v>
+        <v>4.153772430207312</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.4999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.6376064093633786</v>
+        <v>2.09855807359484</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.4999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>2.018028306713215</v>
+        <v>1.570175925089259</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.4999999999999999</v>
+        <v>-2</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9999999999999999</v>
+        <v>-1.5</v>
       </c>
       <c r="C17" t="n">
-        <v>3.341563559628241</v>
+        <v>0.2611324803015852</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.4999999999999999</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>-1.5</v>
       </c>
       <c r="C18" t="n">
-        <v>4.153772430207312</v>
+        <v>0.3166552326034067</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="C19" t="n">
-        <v>2.09855807359484</v>
+        <v>-2.439768421782791</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1.5</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.9999999999999999</v>
+        <v>-1.5</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2256857649168159</v>
+        <v>-1.432261556659985</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="C21" t="n">
-        <v>2.09855807359484</v>
+        <v>0.1276654147085979</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1.5</v>
+        <v>-2</v>
       </c>
       <c r="B22" t="n">
-        <v>0.9999999999999999</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>1.570175925089259</v>
+        <v>-0.559464741079873</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9876082416053322</v>
+        <v>0.2644535180554625</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-2</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>-1.5</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>0.2611324803015852</v>
+        <v>1.318403518704277</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.9999999999999999</v>
+        <v>2</v>
       </c>
       <c r="B25" t="n">
-        <v>-1.5</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>-1.432261556659985</v>
+        <v>1.14205109405719</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="B26" t="n">
-        <v>-1.5</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1276654147085979</v>
+        <v>-1.184977373010164</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2644535180554625</v>
+        <v>-0.6785372011750905</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.559464741079873</v>
+        <v>2.221698524169522</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-0.9999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01515476011764776</v>
+        <v>2.645203700103232</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2644535180554625</v>
+        <v>1.052308173033587</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.9999999999999999</v>
+        <v>-2</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.4999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="C31" t="n">
-        <v>1.318403518704277</v>
+        <v>-0.1249835328388174</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.4999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="C32" t="n">
-        <v>1.14205109405719</v>
+        <v>1.405454626907681</v>
       </c>
     </row>
     <row r="33">
@@ -801,97 +801,31 @@
         <v>0</v>
       </c>
       <c r="B33" t="n">
-        <v>0.4999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="C33" t="n">
-        <v>2.221698524169522</v>
+        <v>4.509260985923611</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-0.9999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>0.4999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.6785372011750905</v>
+        <v>2.618176608264823</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B35" t="n">
-        <v>0.4999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="C35" t="n">
-        <v>2.221698524169522</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>2</v>
-      </c>
-      <c r="B36" t="n">
-        <v>0.4999999999999999</v>
-      </c>
-      <c r="C36" t="n">
-        <v>1.052308173033587</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>0</v>
-      </c>
-      <c r="B37" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C37" t="n">
-        <v>4.509260985923611</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>-0.9999999999999999</v>
-      </c>
-      <c r="B38" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C38" t="n">
-        <v>1.405454626907681</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>0</v>
-      </c>
-      <c r="B39" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C39" t="n">
-        <v>4.509260985923611</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="B40" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C40" t="n">
-        <v>2.618176608264823</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>2</v>
-      </c>
-      <c r="B41" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C41" t="n">
         <v>0.3236282028394758</v>
       </c>
     </row>
@@ -906,7 +840,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -936,10 +870,10 @@
         <v>-1.5</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.809008216591362</v>
+        <v>0.4235547374920643</v>
       </c>
     </row>
     <row r="3">
@@ -947,10 +881,10 @@
         <v>-1.5</v>
       </c>
       <c r="B3" t="n">
-        <v>-2</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4235547374920643</v>
+        <v>1.318300794578028</v>
       </c>
     </row>
     <row r="4">
@@ -958,10 +892,10 @@
         <v>-1.5</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1.318300794578028</v>
+        <v>-1.809008216591362</v>
       </c>
     </row>
     <row r="5">
@@ -969,32 +903,32 @@
         <v>-1.5</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.809008216591362</v>
+        <v>-0.675697613714089</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-1.5</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9999999999999999</v>
+        <v>-2</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.675697613714089</v>
+        <v>-3.01134817891804</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-1.5</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4293309949835339</v>
+        <v>0.7479605142706949</v>
       </c>
     </row>
     <row r="8">
@@ -1013,10 +947,10 @@
         <v>-0.4999999999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>-2</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>-3.01134817891804</v>
+        <v>2.149165588162713</v>
       </c>
     </row>
     <row r="10">
@@ -1024,43 +958,43 @@
         <v>-0.4999999999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.9999999999999999</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7479605142706949</v>
+        <v>4.583632476078614</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.6227429469695799</v>
+        <v>-4.157983975716469</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9999999999999999</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>2.149165588162713</v>
+        <v>-1.014258387423858</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>4.583632476078614</v>
+        <v>3.654883113686972</v>
       </c>
     </row>
     <row r="14">
@@ -1068,208 +1002,208 @@
         <v>0.4999999999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>-4.157983975716469</v>
+        <v>4.661222488352294</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.4999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>-1.014258387423858</v>
+        <v>2.412356926086823</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.4999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>2.411321557594434</v>
+        <v>1.213670281817384</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.4999999999999999</v>
+        <v>-2</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9999999999999999</v>
+        <v>-1.5</v>
       </c>
       <c r="C17" t="n">
-        <v>3.654883113686972</v>
+        <v>0.158293885689053</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.4999999999999999</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>-1.5</v>
       </c>
       <c r="C18" t="n">
-        <v>4.661222488352294</v>
+        <v>1.275617850204096</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="C19" t="n">
-        <v>2.412356926086823</v>
+        <v>-2.977633055850829</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1.5</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.9999999999999999</v>
+        <v>-1.5</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3854690312796619</v>
+        <v>-1.73613921132073</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="C21" t="n">
-        <v>2.412356926086823</v>
+        <v>0.05049110933342778</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1.5</v>
+        <v>-2</v>
       </c>
       <c r="B22" t="n">
-        <v>0.9999999999999999</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>1.213670281817384</v>
+        <v>-0.837016269963701</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5256638262763336</v>
+        <v>0.5010502194470686</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-2</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>-1.5</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>0.158293885689053</v>
+        <v>1.675296229229132</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.9999999999999999</v>
+        <v>2</v>
       </c>
       <c r="B25" t="n">
-        <v>-1.5</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>-1.73613921132073</v>
+        <v>1.11149384046635</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="B26" t="n">
-        <v>-1.5</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>0.05049110933342778</v>
+        <v>-1.114108358953093</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>0.5010502194470686</v>
+        <v>-1.53299295929533</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.837016269963701</v>
+        <v>1.930395494499225</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-0.9999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>0.2254440967570561</v>
+        <v>2.962544235949535</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>0.5010502194470686</v>
+        <v>1.137673212371529</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.9999999999999999</v>
+        <v>-2</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.4999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="C31" t="n">
-        <v>1.675296229229132</v>
+        <v>-0.0335871952061069</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.4999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="C32" t="n">
-        <v>1.11149384046635</v>
+        <v>1.752126261181803</v>
       </c>
     </row>
     <row r="33">
@@ -1277,97 +1211,31 @@
         <v>0</v>
       </c>
       <c r="B33" t="n">
-        <v>0.4999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="C33" t="n">
-        <v>1.930395494499225</v>
+        <v>5.380632817557998</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-0.9999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>0.4999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="C34" t="n">
-        <v>-1.53299295929533</v>
+        <v>2.20480355658281</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B35" t="n">
-        <v>0.4999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="C35" t="n">
-        <v>1.930395494499225</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>2</v>
-      </c>
-      <c r="B36" t="n">
-        <v>0.4999999999999999</v>
-      </c>
-      <c r="C36" t="n">
-        <v>1.137673212371529</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>0</v>
-      </c>
-      <c r="B37" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C37" t="n">
-        <v>5.380632817557998</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>-0.9999999999999999</v>
-      </c>
-      <c r="B38" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C38" t="n">
-        <v>1.752126261181803</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>0</v>
-      </c>
-      <c r="B39" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C39" t="n">
-        <v>5.380632817557998</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="B40" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C40" t="n">
-        <v>2.20480355658281</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>2</v>
-      </c>
-      <c r="B41" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C41" t="n">
         <v>0.2035780888067933</v>
       </c>
     </row>
@@ -1382,7 +1250,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1412,10 +1280,10 @@
         <v>-1.5</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.149771600590138</v>
+        <v>-0.07399303400735256</v>
       </c>
     </row>
     <row r="3">
@@ -1423,10 +1291,10 @@
         <v>-1.5</v>
       </c>
       <c r="B3" t="n">
-        <v>-2</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.07399303400735256</v>
+        <v>0.5337389238828505</v>
       </c>
     </row>
     <row r="4">
@@ -1434,10 +1302,10 @@
         <v>-1.5</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5337389238828505</v>
+        <v>-1.149771600590138</v>
       </c>
     </row>
     <row r="5">
@@ -1445,32 +1313,32 @@
         <v>-1.5</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.149771600590138</v>
+        <v>-0.2454106258422668</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-1.5</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9999999999999999</v>
+        <v>-2</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.2454106258422668</v>
+        <v>-2.200853708353485</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-1.5</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8913813876623726</v>
+        <v>0.1112100537060508</v>
       </c>
     </row>
     <row r="8">
@@ -1489,10 +1357,10 @@
         <v>-0.4999999999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>-2</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>-2.200853708353485</v>
+        <v>1.955948631561417</v>
       </c>
     </row>
     <row r="10">
@@ -1500,43 +1368,43 @@
         <v>-0.4999999999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.9999999999999999</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1112100537060508</v>
+        <v>3.630421066130253</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.006748853014281486</v>
+        <v>-3.011818721844</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9999999999999999</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>1.955948631561417</v>
+        <v>-0.6067458277615685</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>3.630421066130253</v>
+        <v>3.156423032780669</v>
       </c>
     </row>
     <row r="14">
@@ -1544,208 +1412,208 @@
         <v>0.4999999999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>-3.011818721844</v>
+        <v>3.798740489804807</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.4999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.6067458277615685</v>
+        <v>1.91666111108267</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.4999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>1.876152940975782</v>
+        <v>1.514929078125878</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.4999999999999999</v>
+        <v>-2</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9999999999999999</v>
+        <v>-1.5</v>
       </c>
       <c r="C17" t="n">
-        <v>3.156423032780669</v>
+        <v>0.1047278651507054</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.4999999999999999</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>-1.5</v>
       </c>
       <c r="C18" t="n">
-        <v>3.798740489804807</v>
+        <v>0.240624670804396</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="C19" t="n">
-        <v>1.91666111108267</v>
+        <v>-2.270803650382733</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1.5</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.9999999999999999</v>
+        <v>-1.5</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2375216032995495</v>
+        <v>-1.283076279148917</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="C21" t="n">
-        <v>1.91666111108267</v>
+        <v>0.07632076272490838</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1.5</v>
+        <v>-2</v>
       </c>
       <c r="B22" t="n">
-        <v>0.9999999999999999</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>1.514929078125878</v>
+        <v>-0.591876872740547</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="C23" t="n">
-        <v>1.113929241569717</v>
+        <v>0.2900251276267257</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-2</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>-1.5</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1047278651507054</v>
+        <v>1.208074495830077</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.9999999999999999</v>
+        <v>2</v>
       </c>
       <c r="B25" t="n">
-        <v>-1.5</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>-1.283076279148917</v>
+        <v>0.9869878218265694</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="B26" t="n">
-        <v>-1.5</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>0.07632076272490838</v>
+        <v>-0.8977256349404399</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2900251276267257</v>
+        <v>-0.5018215722378101</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.591876872740547</v>
+        <v>2.035394873971412</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-0.9999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>0.02152886294520879</v>
+        <v>2.514706671841976</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2900251276267257</v>
+        <v>1.134561866562839</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.9999999999999999</v>
+        <v>-2</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.4999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="C31" t="n">
-        <v>1.208074495830077</v>
+        <v>-0.06405839987310871</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.4999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="C32" t="n">
-        <v>0.9869878218265694</v>
+        <v>1.447754957774238</v>
       </c>
     </row>
     <row r="33">
@@ -1753,97 +1621,31 @@
         <v>0</v>
       </c>
       <c r="B33" t="n">
-        <v>0.4999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="C33" t="n">
-        <v>2.035394873971412</v>
+        <v>4.217343679358079</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-0.9999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>0.4999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.5018215722378101</v>
+        <v>2.394786502874987</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B35" t="n">
-        <v>0.4999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="C35" t="n">
-        <v>2.035394873971412</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>2</v>
-      </c>
-      <c r="B36" t="n">
-        <v>0.4999999999999999</v>
-      </c>
-      <c r="C36" t="n">
-        <v>1.134561866562839</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>0</v>
-      </c>
-      <c r="B37" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C37" t="n">
-        <v>4.217343679358079</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>-0.9999999999999999</v>
-      </c>
-      <c r="B38" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C38" t="n">
-        <v>1.447754957774238</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>0</v>
-      </c>
-      <c r="B39" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C39" t="n">
-        <v>4.217343679358079</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="B40" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C40" t="n">
-        <v>2.394786502874987</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>2</v>
-      </c>
-      <c r="B41" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C41" t="n">
         <v>0.5013215642450382</v>
       </c>
     </row>
@@ -1858,7 +1660,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1888,10 +1690,10 @@
         <v>-1.5</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1972889442476743</v>
+        <v>-0.3957668166708554</v>
       </c>
     </row>
     <row r="3">
@@ -1899,10 +1701,10 @@
         <v>-1.5</v>
       </c>
       <c r="B3" t="n">
-        <v>-2</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.3957668166708554</v>
+        <v>-0.09439015286872768</v>
       </c>
     </row>
     <row r="4">
@@ -1910,10 +1712,10 @@
         <v>-1.5</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.09439015286872768</v>
+        <v>0.1972889442476743</v>
       </c>
     </row>
     <row r="5">
@@ -1921,32 +1723,32 @@
         <v>-1.5</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1972889442476743</v>
+        <v>0.6389316348828413</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-1.5</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9999999999999999</v>
+        <v>-2</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6389316348828413</v>
+        <v>-0.5248368581600884</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-1.5</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>1.04334848036288</v>
+        <v>-0.04312789694951585</v>
       </c>
     </row>
     <row r="8">
@@ -1965,10 +1767,10 @@
         <v>-0.4999999999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>-2</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.5248368581600884</v>
+        <v>1.079584078096785</v>
       </c>
     </row>
     <row r="10">
@@ -1976,43 +1778,43 @@
         <v>-0.4999999999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.9999999999999999</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.04312789694951585</v>
+        <v>1.492935680244106</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4862988710604831</v>
+        <v>-0.5048084375653061</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9999999999999999</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>1.079584078096785</v>
+        <v>0.05952394856181614</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>1.492935680244106</v>
+        <v>1.346861418492051</v>
       </c>
     </row>
     <row r="14">
@@ -2020,208 +1822,208 @@
         <v>0.4999999999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.5048084375653061</v>
+        <v>1.663021909512511</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.4999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.05952394856181614</v>
+        <v>0.8446795731606602</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.4999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7688842009435356</v>
+        <v>1.249826711672721</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.4999999999999999</v>
+        <v>-2</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9999999999999999</v>
+        <v>-1.5</v>
       </c>
       <c r="C17" t="n">
-        <v>1.346861418492051</v>
+        <v>-0.2493448478953544</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.4999999999999999</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>-1.5</v>
       </c>
       <c r="C18" t="n">
-        <v>1.663021909512511</v>
+        <v>-0.2652757070114841</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8446795731606602</v>
+        <v>-0.3286289222298163</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1.5</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.9999999999999999</v>
+        <v>-1.5</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2480898159664835</v>
+        <v>-0.1537960145198432</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8446795731606602</v>
+        <v>0.08533871777854356</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1.5</v>
+        <v>-2</v>
       </c>
       <c r="B22" t="n">
-        <v>0.9999999999999999</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>1.249826711672721</v>
+        <v>-0.01915261667716647</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="C23" t="n">
-        <v>1.470066349228546</v>
+        <v>0.3135024878383588</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-2</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>-1.5</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.2493448478953544</v>
+        <v>0.5039680593230298</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.9999999999999999</v>
+        <v>2</v>
       </c>
       <c r="B25" t="n">
-        <v>-1.5</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.1537960145198432</v>
+        <v>0.5774784729766154</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="B26" t="n">
-        <v>-1.5</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>0.08533871777854356</v>
+        <v>0.288142061936361</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3135024878383588</v>
+        <v>0.5766927919523206</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.01915261667716647</v>
+        <v>0.973426839804551</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-0.9999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1263260858817081</v>
+        <v>1.11402426307113</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>0.3135024878383588</v>
+        <v>1.006634086993879</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.9999999999999999</v>
+        <v>-2</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.4999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="C31" t="n">
-        <v>0.5039680593230298</v>
+        <v>0.6803517097375731</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.4999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="C32" t="n">
-        <v>0.5774784729766154</v>
+        <v>1.086211918800821</v>
       </c>
     </row>
     <row r="33">
@@ -2229,97 +2031,31 @@
         <v>0</v>
       </c>
       <c r="B33" t="n">
-        <v>0.4999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="C33" t="n">
-        <v>0.973426839804551</v>
+        <v>1.505173813963901</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-0.9999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>0.4999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="C34" t="n">
-        <v>0.5766927919523206</v>
+        <v>1.487546964144684</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B35" t="n">
-        <v>0.4999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="C35" t="n">
-        <v>0.973426839804551</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>2</v>
-      </c>
-      <c r="B36" t="n">
-        <v>0.4999999999999999</v>
-      </c>
-      <c r="C36" t="n">
-        <v>1.006634086993879</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>0</v>
-      </c>
-      <c r="B37" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C37" t="n">
-        <v>1.505173813963901</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>-0.9999999999999999</v>
-      </c>
-      <c r="B38" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C38" t="n">
-        <v>1.086211918800821</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>0</v>
-      </c>
-      <c r="B39" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C39" t="n">
-        <v>1.505173813963901</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="B40" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C40" t="n">
-        <v>1.487546964144684</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>2</v>
-      </c>
-      <c r="B41" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C41" t="n">
         <v>1.267168668838015</v>
       </c>
     </row>
@@ -2334,7 +2070,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2364,10 +2100,10 @@
         <v>-1.5</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.3715130411233524</v>
+        <v>-0.3998262670419992</v>
       </c>
     </row>
     <row r="3">
@@ -2375,10 +2111,10 @@
         <v>-1.5</v>
       </c>
       <c r="B3" t="n">
-        <v>-2</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.3998262670419992</v>
+        <v>-0.01459010968921985</v>
       </c>
     </row>
     <row r="4">
@@ -2386,10 +2122,10 @@
         <v>-1.5</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.01459010968921985</v>
+        <v>-0.3715130411233524</v>
       </c>
     </row>
     <row r="5">
@@ -2397,32 +2133,32 @@
         <v>-1.5</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.3715130411233524</v>
+        <v>0.2859761890634501</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-1.5</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9999999999999999</v>
+        <v>-2</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2859761890634501</v>
+        <v>-1.333364180305187</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-1.5</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>1.046778760674071</v>
+        <v>-0.1689781638705185</v>
       </c>
     </row>
     <row r="8">
@@ -2441,10 +2177,10 @@
         <v>-0.4999999999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>-2</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.333364180305187</v>
+        <v>1.59410038252826</v>
       </c>
     </row>
     <row r="10">
@@ -2452,43 +2188,43 @@
         <v>-0.4999999999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.9999999999999999</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.1689781638705185</v>
+        <v>2.487782698388641</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3678130001061521</v>
+        <v>-1.647062010801143</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9999999999999999</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>1.59410038252826</v>
+        <v>-0.2919113159664017</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>2.487782698388641</v>
+        <v>2.295935008338319</v>
       </c>
     </row>
     <row r="14">
@@ -2496,208 +2232,208 @@
         <v>0.4999999999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>-1.647062010801143</v>
+        <v>2.711594682514032</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.4999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.2919113159664017</v>
+        <v>1.327798576675119</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.4999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>1.2858589188272</v>
+        <v>1.53937225493248</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.4999999999999999</v>
+        <v>-2</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9999999999999999</v>
+        <v>-1.5</v>
       </c>
       <c r="C17" t="n">
-        <v>2.295935008338319</v>
+        <v>-0.1869225497725316</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.4999999999999999</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>-1.5</v>
       </c>
       <c r="C18" t="n">
-        <v>2.711594682514032</v>
+        <v>-0.2881258644589021</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="C19" t="n">
-        <v>1.327798576675119</v>
+        <v>-1.229349715456939</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1.5</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.9999999999999999</v>
+        <v>-1.5</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1826449445946907</v>
+        <v>-0.7447207148179407</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="C21" t="n">
-        <v>1.327798576675119</v>
+        <v>-0.01858483231844032</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1.5</v>
+        <v>-2</v>
       </c>
       <c r="B22" t="n">
-        <v>0.9999999999999999</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>1.53937225493248</v>
+        <v>-0.3421310731792111</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="C23" t="n">
-        <v>1.499678447296393</v>
+        <v>0.2704851450942683</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-2</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>-1.5</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.1869225497725316</v>
+        <v>0.7664367475708695</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.9999999999999999</v>
+        <v>2</v>
       </c>
       <c r="B25" t="n">
-        <v>-1.5</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.7447207148179407</v>
+        <v>0.7483814804733869</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="B26" t="n">
-        <v>-1.5</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.01858483231844032</v>
+        <v>-0.2873454845729853</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2704851450942683</v>
+        <v>0.2470144324081659</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.3421310731792111</v>
+        <v>1.574837614255044</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-0.9999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.0235650737297722</v>
+        <v>1.831465558505821</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2704851450942683</v>
+        <v>1.144687741167967</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.9999999999999999</v>
+        <v>-2</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.4999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="C31" t="n">
-        <v>0.7664367475708695</v>
+        <v>0.308666837280085</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.4999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="C32" t="n">
-        <v>0.7483814804733869</v>
+        <v>1.341853248854953</v>
       </c>
     </row>
     <row r="33">
@@ -2705,97 +2441,31 @@
         <v>0</v>
       </c>
       <c r="B33" t="n">
-        <v>0.4999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="C33" t="n">
-        <v>1.574837614255044</v>
+        <v>2.768254849505528</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-0.9999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>0.4999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="C34" t="n">
-        <v>0.2470144324081659</v>
+        <v>2.098853989919366</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B35" t="n">
-        <v>0.4999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="C35" t="n">
-        <v>1.574837614255044</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>2</v>
-      </c>
-      <c r="B36" t="n">
-        <v>0.4999999999999999</v>
-      </c>
-      <c r="C36" t="n">
-        <v>1.144687741167967</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>0</v>
-      </c>
-      <c r="B37" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C37" t="n">
-        <v>2.768254849505528</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>-0.9999999999999999</v>
-      </c>
-      <c r="B38" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C38" t="n">
-        <v>1.341853248854953</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>0</v>
-      </c>
-      <c r="B39" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C39" t="n">
-        <v>2.768254849505528</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="B40" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C40" t="n">
-        <v>2.098853989919366</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>2</v>
-      </c>
-      <c r="B41" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C41" t="n">
         <v>1.060933903138714</v>
       </c>
     </row>
@@ -2810,7 +2480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2840,7 +2510,7 @@
         <v>-1.5</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="C2" t="n">
         <v>0.5173638935743443</v>
@@ -2851,7 +2521,7 @@
         <v>-1.5</v>
       </c>
       <c r="B3" t="n">
-        <v>-2</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="C3" t="n">
         <v>0.5173638935743443</v>
@@ -2862,7 +2532,7 @@
         <v>-1.5</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0.5173638935743443</v>
@@ -2873,7 +2543,7 @@
         <v>-1.5</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C5" t="n">
         <v>0.5173638935743443</v>
@@ -2881,10 +2551,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-1.5</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9999999999999999</v>
+        <v>-2</v>
       </c>
       <c r="C6" t="n">
         <v>0.5173638935743443</v>
@@ -2892,10 +2562,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-1.5</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="C7" t="n">
         <v>0.5173638935743443</v>
@@ -2917,7 +2587,7 @@
         <v>-0.4999999999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>-2</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C9" t="n">
         <v>0.5173638935743443</v>
@@ -2928,7 +2598,7 @@
         <v>-0.4999999999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.9999999999999999</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
         <v>0.5173638935743443</v>
@@ -2936,10 +2606,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="C11" t="n">
         <v>0.5173638935743443</v>
@@ -2947,10 +2617,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9999999999999999</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="C12" t="n">
         <v>0.5173638935743443</v>
@@ -2958,10 +2628,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C13" t="n">
         <v>0.5173638935743443</v>
@@ -2972,7 +2642,7 @@
         <v>0.4999999999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
         <v>0.5173638935743443</v>
@@ -2980,10 +2650,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.4999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0.5173638935743443</v>
@@ -2991,10 +2661,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.4999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C16" t="n">
         <v>0.5173638935743443</v>
@@ -3002,10 +2672,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.4999999999999999</v>
+        <v>-2</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9999999999999999</v>
+        <v>-1.5</v>
       </c>
       <c r="C17" t="n">
         <v>0.5173638935743443</v>
@@ -3013,10 +2683,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.4999999999999999</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>-1.5</v>
       </c>
       <c r="C18" t="n">
         <v>0.5173638935743443</v>
@@ -3024,10 +2694,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="C19" t="n">
         <v>0.5173638935743443</v>
@@ -3035,10 +2705,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1.5</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.9999999999999999</v>
+        <v>-1.5</v>
       </c>
       <c r="C20" t="n">
         <v>0.5173638935743443</v>
@@ -3046,10 +2716,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="C21" t="n">
         <v>0.5173638935743443</v>
@@ -3057,10 +2727,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1.5</v>
+        <v>-2</v>
       </c>
       <c r="B22" t="n">
-        <v>0.9999999999999999</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="C22" t="n">
         <v>0.5173638935743443</v>
@@ -3068,10 +2738,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="C23" t="n">
         <v>0.5173638935743443</v>
@@ -3079,10 +2749,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-2</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>-1.5</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="C24" t="n">
         <v>0.5173638935743443</v>
@@ -3090,10 +2760,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.9999999999999999</v>
+        <v>2</v>
       </c>
       <c r="B25" t="n">
-        <v>-1.5</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="C25" t="n">
         <v>0.5173638935743443</v>
@@ -3101,10 +2771,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="B26" t="n">
-        <v>-1.5</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="C26" t="n">
         <v>0.5173638935743443</v>
@@ -3112,10 +2782,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="C27" t="n">
         <v>0.5173638935743443</v>
@@ -3123,10 +2793,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="C28" t="n">
         <v>0.5173638935743443</v>
@@ -3134,10 +2804,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-0.9999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="C29" t="n">
         <v>0.5173638935743443</v>
@@ -3145,10 +2815,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="C30" t="n">
         <v>0.5173638935743443</v>
@@ -3156,10 +2826,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.9999999999999999</v>
+        <v>-2</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.4999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="C31" t="n">
         <v>0.5173638935743443</v>
@@ -3167,10 +2837,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.4999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="C32" t="n">
         <v>0.5173638935743443</v>
@@ -3181,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="B33" t="n">
-        <v>0.4999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="C33" t="n">
         <v>0.5173638935743443</v>
@@ -3189,10 +2859,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-0.9999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>0.4999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="C34" t="n">
         <v>0.5173638935743443</v>
@@ -3200,78 +2870,12 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B35" t="n">
-        <v>0.4999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="C35" t="n">
-        <v>0.5173638935743443</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>2</v>
-      </c>
-      <c r="B36" t="n">
-        <v>0.4999999999999999</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.5173638935743443</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>0</v>
-      </c>
-      <c r="B37" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0.5173638935743443</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>-0.9999999999999999</v>
-      </c>
-      <c r="B38" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0.5173638935743443</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>0</v>
-      </c>
-      <c r="B39" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0.5173638935743443</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="B40" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0.5173638935743443</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>2</v>
-      </c>
-      <c r="B41" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C41" t="n">
         <v>0.5173638935743443</v>
       </c>
     </row>

--- a/ArtigoKrigingVsg/peaks/VirtualSamples.xlsx
+++ b/ArtigoKrigingVsg/peaks/VirtualSamples.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,7 +463,7 @@
         <v>-2</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08373888865290463</v>
+        <v>0.08373889103000398</v>
       </c>
     </row>
     <row r="3">
@@ -474,7 +474,7 @@
         <v>-0.9999999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6620963141816841</v>
+        <v>0.6620963224823134</v>
       </c>
     </row>
     <row r="4">
@@ -485,7 +485,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.346262834575048</v>
+        <v>-1.346262835764032</v>
       </c>
     </row>
     <row r="5">
@@ -496,18 +496,18 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.4943307705808023</v>
+        <v>-0.4943307722557232</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.4999999999999999</v>
+        <v>-1.5</v>
       </c>
       <c r="B6" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>-2.416132529960544</v>
+        <v>0.9080080488278707</v>
       </c>
     </row>
     <row r="7">
@@ -515,10 +515,10 @@
         <v>-0.4999999999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.9999999999999999</v>
+        <v>-2</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1126821534401601</v>
+        <v>-2.416132527868653</v>
       </c>
     </row>
     <row r="8">
@@ -526,10 +526,10 @@
         <v>-0.4999999999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.0168840571388518</v>
+        <v>0.1126821556674253</v>
       </c>
     </row>
     <row r="9">
@@ -537,10 +537,10 @@
         <v>-0.4999999999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>2.004075919298646</v>
+        <v>-0.01688405974934003</v>
       </c>
     </row>
     <row r="10">
@@ -548,21 +548,21 @@
         <v>-0.4999999999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>3.957524834748929</v>
+        <v>2.00407591647077</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.4999999999999999</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>-3.392024819143388</v>
+        <v>3.957524836433219</v>
       </c>
     </row>
     <row r="12">
@@ -570,10 +570,10 @@
         <v>0.4999999999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.9999999999999999</v>
+        <v>-2</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.6376064093633786</v>
+        <v>-3.392024823514296</v>
       </c>
     </row>
     <row r="13">
@@ -581,10 +581,10 @@
         <v>0.4999999999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9999999999999999</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>3.341563559628241</v>
+        <v>-0.6376064123218961</v>
       </c>
     </row>
     <row r="14">
@@ -592,87 +592,87 @@
         <v>0.4999999999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>4.153772430207312</v>
+        <v>2.018028306156258</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1.5</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>2.09855807359484</v>
+        <v>3.341563561907734</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1.5</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9999999999999999</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>1.570175925089259</v>
+        <v>4.153772428731995</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-2</v>
+        <v>1.5</v>
       </c>
       <c r="B17" t="n">
-        <v>-1.5</v>
+        <v>-2</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2611324803015852</v>
+        <v>-0.9957318400552829</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.9999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="B18" t="n">
-        <v>-1.5</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3166552326034067</v>
+        <v>0.2256857690490523</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="B19" t="n">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>-2.439768421782791</v>
+        <v>2.098558075797896</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="B20" t="n">
-        <v>-1.5</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>-1.432261556659985</v>
+        <v>1.570175915396323</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="B21" t="n">
-        <v>-1.5</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1276654147085979</v>
+        <v>0.9876082356245576</v>
       </c>
     </row>
     <row r="22">
@@ -680,153 +680,219 @@
         <v>-2</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.4999999999999999</v>
+        <v>-1.5</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.559464741079873</v>
+        <v>0.2611324816411806</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.4999999999999999</v>
+        <v>-1.5</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2644535180554625</v>
+        <v>0.3166552392844378</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.4999999999999999</v>
+        <v>-1.5</v>
       </c>
       <c r="C24" t="n">
-        <v>1.318403518704277</v>
+        <v>-2.439768424196422</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.4999999999999999</v>
+        <v>-1.5</v>
       </c>
       <c r="C25" t="n">
-        <v>1.14205109405719</v>
+        <v>-1.432261559803352</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="B26" t="n">
-        <v>0.4999999999999999</v>
+        <v>-1.5</v>
       </c>
       <c r="C26" t="n">
-        <v>-1.184977373010164</v>
+        <v>0.1276654127164068</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-0.9999999999999999</v>
+        <v>-2</v>
       </c>
       <c r="B27" t="n">
-        <v>0.4999999999999999</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.6785372011750905</v>
+        <v>-0.5594647434738682</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>0.4999999999999999</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>2.221698524169522</v>
+        <v>0.01515476651823737</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="B29" t="n">
-        <v>0.4999999999999999</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>2.645203700103232</v>
+        <v>0.2644535216577009</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>0.4999999999999999</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>1.052308173033587</v>
+        <v>1.31840352493853</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="B31" t="n">
-        <v>1.5</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.1249835328388174</v>
+        <v>1.142051091311242</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-0.9999999999999999</v>
+        <v>-2</v>
       </c>
       <c r="B32" t="n">
-        <v>1.5</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>1.405454626907681</v>
+        <v>-1.184977370393103</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>1.5</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>4.509260985923611</v>
+        <v>-0.6785372135023864</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="B34" t="n">
-        <v>1.5</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>2.618176608264823</v>
+        <v>2.221698517427548</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>1.5</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.3236282028394758</v>
+        <v>2.645203695189227</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>2</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.4999999999999999</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1.052308175446992</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>-2</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-0.1249835251422943</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>-0.9999999999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1.405454633383981</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>0</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C39" t="n">
+        <v>4.509260994895152</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C40" t="n">
+        <v>2.618176604340441</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>2</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.3236281991753256</v>
       </c>
     </row>
   </sheetData>
@@ -840,7 +906,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -873,7 +939,7 @@
         <v>-2</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4235547374920643</v>
+        <v>0.4235547354964684</v>
       </c>
     </row>
     <row r="3">
@@ -884,7 +950,7 @@
         <v>-0.9999999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>1.318300794578028</v>
+        <v>1.318300792562311</v>
       </c>
     </row>
     <row r="4">
@@ -895,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.809008216591362</v>
+        <v>-1.809008216751274</v>
       </c>
     </row>
     <row r="5">
@@ -906,18 +972,18 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.675697613714089</v>
+        <v>-0.6756976128341117</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.4999999999999999</v>
+        <v>-1.5</v>
       </c>
       <c r="B6" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>-3.01134817891804</v>
+        <v>0.4293309962818472</v>
       </c>
     </row>
     <row r="7">
@@ -925,10 +991,10 @@
         <v>-0.4999999999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.9999999999999999</v>
+        <v>-2</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7479605142706949</v>
+        <v>-3.011348178320314</v>
       </c>
     </row>
     <row r="8">
@@ -936,10 +1002,10 @@
         <v>-0.4999999999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.6227429469695799</v>
+        <v>0.7479605148049269</v>
       </c>
     </row>
     <row r="9">
@@ -947,10 +1013,10 @@
         <v>-0.4999999999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>2.149165588162713</v>
+        <v>-0.6227429467936418</v>
       </c>
     </row>
     <row r="10">
@@ -958,21 +1024,21 @@
         <v>-0.4999999999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>4.583632476078614</v>
+        <v>2.149165587918668</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.4999999999999999</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>-4.157983975716469</v>
+        <v>4.583632475615934</v>
       </c>
     </row>
     <row r="12">
@@ -980,10 +1046,10 @@
         <v>0.4999999999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.9999999999999999</v>
+        <v>-2</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.014258387423858</v>
+        <v>-4.157983975142266</v>
       </c>
     </row>
     <row r="13">
@@ -991,10 +1057,10 @@
         <v>0.4999999999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9999999999999999</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>3.654883113686972</v>
+        <v>-1.014258387021291</v>
       </c>
     </row>
     <row r="14">
@@ -1002,87 +1068,87 @@
         <v>0.4999999999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>4.661222488352294</v>
+        <v>2.411321557537883</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1.5</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>2.412356926086823</v>
+        <v>3.654883113363653</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1.5</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9999999999999999</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>1.213670281817384</v>
+        <v>4.661222487885713</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-2</v>
+        <v>1.5</v>
       </c>
       <c r="B17" t="n">
-        <v>-1.5</v>
+        <v>-2</v>
       </c>
       <c r="C17" t="n">
-        <v>0.158293885689053</v>
+        <v>-0.5373574978510173</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.9999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="B18" t="n">
-        <v>-1.5</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>1.275617850204096</v>
+        <v>0.3854690302727564</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="B19" t="n">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>-2.977633055850829</v>
+        <v>2.412356925742293</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="B20" t="n">
-        <v>-1.5</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>-1.73613921132073</v>
+        <v>1.213670282483738</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="B21" t="n">
-        <v>-1.5</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>0.05049110933342778</v>
+        <v>0.5256638275630352</v>
       </c>
     </row>
     <row r="22">
@@ -1090,153 +1156,219 @@
         <v>-2</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.4999999999999999</v>
+        <v>-1.5</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.837016269963701</v>
+        <v>0.1582938849819862</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.4999999999999999</v>
+        <v>-1.5</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5010502194470686</v>
+        <v>1.27561784729653</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.4999999999999999</v>
+        <v>-1.5</v>
       </c>
       <c r="C24" t="n">
-        <v>1.675296229229132</v>
+        <v>-2.977633058578303</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.4999999999999999</v>
+        <v>-1.5</v>
       </c>
       <c r="C25" t="n">
-        <v>1.11149384046635</v>
+        <v>-1.736139211348967</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="B26" t="n">
-        <v>0.4999999999999999</v>
+        <v>-1.5</v>
       </c>
       <c r="C26" t="n">
-        <v>-1.114108358953093</v>
+        <v>0.05049110947680286</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-0.9999999999999999</v>
+        <v>-2</v>
       </c>
       <c r="B27" t="n">
-        <v>0.4999999999999999</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>-1.53299295929533</v>
+        <v>-0.8370162697532842</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>0.4999999999999999</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>1.930395494499225</v>
+        <v>0.2254440975848515</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="B29" t="n">
-        <v>0.4999999999999999</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>2.962544235949535</v>
+        <v>0.5010502203268219</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>0.4999999999999999</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>1.137673212371529</v>
+        <v>1.67529622925371</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="B31" t="n">
-        <v>1.5</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.0335871952061069</v>
+        <v>1.111493840400597</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-0.9999999999999999</v>
+        <v>-2</v>
       </c>
       <c r="B32" t="n">
-        <v>1.5</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>1.752126261181803</v>
+        <v>-1.114108358755421</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>1.5</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>5.380632817557998</v>
+        <v>-1.532992958845985</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="B34" t="n">
-        <v>1.5</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>2.20480355658281</v>
+        <v>1.930395494151146</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>1.5</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2035780888067933</v>
+        <v>2.962544235498029</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>2</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.4999999999999999</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1.137673212283299</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>-2</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-0.03358719578136007</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>-0.9999999999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1.752126260116206</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>0</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C39" t="n">
+        <v>5.380632818524178</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C40" t="n">
+        <v>2.204803557752363</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>2</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.2035780890178337</v>
       </c>
     </row>
   </sheetData>
@@ -1250,7 +1382,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1283,7 +1415,7 @@
         <v>-2</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.07399303400735256</v>
+        <v>-0.07399303219913167</v>
       </c>
     </row>
     <row r="3">
@@ -1294,7 +1426,7 @@
         <v>-0.9999999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5337389238828505</v>
+        <v>0.533738921045057</v>
       </c>
     </row>
     <row r="4">
@@ -1305,7 +1437,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.149771600590138</v>
+        <v>-1.149771593746232</v>
       </c>
     </row>
     <row r="5">
@@ -1316,18 +1448,18 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.2454106258422668</v>
+        <v>-0.2454106212948501</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.4999999999999999</v>
+        <v>-1.5</v>
       </c>
       <c r="B6" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>-2.200853708353485</v>
+        <v>0.8913813849967518</v>
       </c>
     </row>
     <row r="7">
@@ -1335,10 +1467,10 @@
         <v>-0.4999999999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.9999999999999999</v>
+        <v>-2</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1112100537060508</v>
+        <v>-2.200853693315965</v>
       </c>
     </row>
     <row r="8">
@@ -1346,10 +1478,10 @@
         <v>-0.4999999999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.006748853014281486</v>
+        <v>0.1112100541348846</v>
       </c>
     </row>
     <row r="9">
@@ -1357,10 +1489,10 @@
         <v>-0.4999999999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>1.955948631561417</v>
+        <v>-0.006748851073835924</v>
       </c>
     </row>
     <row r="10">
@@ -1368,21 +1500,21 @@
         <v>-0.4999999999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>3.630421066130253</v>
+        <v>1.955948625278394</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.4999999999999999</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>-3.011818721844</v>
+        <v>3.63042104778016</v>
       </c>
     </row>
     <row r="12">
@@ -1390,10 +1522,10 @@
         <v>0.4999999999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.9999999999999999</v>
+        <v>-2</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.6067458277615685</v>
+        <v>-3.011818701263</v>
       </c>
     </row>
     <row r="13">
@@ -1401,10 +1533,10 @@
         <v>0.4999999999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9999999999999999</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>3.156423032780669</v>
+        <v>-0.6067458233117237</v>
       </c>
     </row>
     <row r="14">
@@ -1412,87 +1544,87 @@
         <v>0.4999999999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>3.798740489804807</v>
+        <v>1.876152933750652</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1.5</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>1.91666111108267</v>
+        <v>3.156423019986359</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1.5</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9999999999999999</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>1.514929078125878</v>
+        <v>3.798740470875051</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-2</v>
+        <v>1.5</v>
       </c>
       <c r="B17" t="n">
-        <v>-1.5</v>
+        <v>-2</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1047278651507054</v>
+        <v>-0.8924277848741989</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.9999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="B18" t="n">
-        <v>-1.5</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>0.240624670804396</v>
+        <v>0.2375216025782737</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="B19" t="n">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>-2.270803650382733</v>
+        <v>1.916661104140915</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="B20" t="n">
-        <v>-1.5</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>-1.283076279148917</v>
+        <v>1.514929074583702</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="B21" t="n">
-        <v>-1.5</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>0.07632076272490838</v>
+        <v>1.113929239020437</v>
       </c>
     </row>
     <row r="22">
@@ -1500,153 +1632,219 @@
         <v>-2</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.4999999999999999</v>
+        <v>-1.5</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.591876872740547</v>
+        <v>0.1047278650942099</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.4999999999999999</v>
+        <v>-1.5</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2900251276267257</v>
+        <v>0.2406246687831654</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.4999999999999999</v>
+        <v>-1.5</v>
       </c>
       <c r="C24" t="n">
-        <v>1.208074495830077</v>
+        <v>-2.270803639956435</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.4999999999999999</v>
+        <v>-1.5</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9869878218265694</v>
+        <v>-1.283076272225933</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="B26" t="n">
-        <v>0.4999999999999999</v>
+        <v>-1.5</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.8977256349404399</v>
+        <v>0.0763207633377623</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-0.9999999999999999</v>
+        <v>-2</v>
       </c>
       <c r="B27" t="n">
-        <v>0.4999999999999999</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.5018215722378101</v>
+        <v>-0.5918768672640989</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>0.4999999999999999</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>2.035394873971412</v>
+        <v>0.02152886377552686</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="B29" t="n">
-        <v>0.4999999999999999</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>2.514706671841976</v>
+        <v>0.2900251271083729</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>0.4999999999999999</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>1.134561866562839</v>
+        <v>1.208074491347215</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="B31" t="n">
-        <v>1.5</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.06405839987310871</v>
+        <v>0.9869878184853812</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-0.9999999999999999</v>
+        <v>-2</v>
       </c>
       <c r="B32" t="n">
-        <v>1.5</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>1.447754957774238</v>
+        <v>-0.8977256262256325</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>1.5</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>4.217343679358079</v>
+        <v>-0.5018215666187327</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="B34" t="n">
-        <v>1.5</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>2.394786502874987</v>
+        <v>2.035394867732024</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>1.5</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.5013215642450382</v>
+        <v>2.514706662466818</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>2</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.4999999999999999</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1.134561863745229</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>-2</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-0.06405839566386229</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>-0.9999999999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1.447754953416358</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>0</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C39" t="n">
+        <v>4.217343663015215</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C40" t="n">
+        <v>2.394786495363108</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>2</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.5013215664212509</v>
       </c>
     </row>
   </sheetData>
@@ -1660,7 +1858,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1693,7 +1891,7 @@
         <v>-2</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.3957668166708554</v>
+        <v>-0.3957668428016821</v>
       </c>
     </row>
     <row r="3">
@@ -1704,7 +1902,7 @@
         <v>-0.9999999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.09439015286872768</v>
+        <v>-0.09439016976558437</v>
       </c>
     </row>
     <row r="4">
@@ -1715,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1972889442476743</v>
+        <v>0.1972889310505366</v>
       </c>
     </row>
     <row r="5">
@@ -1726,18 +1924,18 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6389316348828413</v>
+        <v>0.6389316348028122</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.4999999999999999</v>
+        <v>-1.5</v>
       </c>
       <c r="B6" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.5248368581600884</v>
+        <v>1.043348494797261</v>
       </c>
     </row>
     <row r="7">
@@ -1745,10 +1943,10 @@
         <v>-0.4999999999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.9999999999999999</v>
+        <v>-2</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.04312789694951585</v>
+        <v>-0.5248368942899506</v>
       </c>
     </row>
     <row r="8">
@@ -1756,10 +1954,10 @@
         <v>-0.4999999999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4862988710604831</v>
+        <v>-0.04312791381615461</v>
       </c>
     </row>
     <row r="9">
@@ -1767,10 +1965,10 @@
         <v>-0.4999999999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>1.079584078096785</v>
+        <v>0.4862988709847612</v>
       </c>
     </row>
     <row r="10">
@@ -1778,21 +1976,21 @@
         <v>-0.4999999999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>1.492935680244106</v>
+        <v>1.079584099309245</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.4999999999999999</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.5048084375653061</v>
+        <v>1.49293571654793</v>
       </c>
     </row>
     <row r="12">
@@ -1800,10 +1998,10 @@
         <v>0.4999999999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.9999999999999999</v>
+        <v>-2</v>
       </c>
       <c r="C12" t="n">
-        <v>0.05952394856181614</v>
+        <v>-0.5048084764601409</v>
       </c>
     </row>
     <row r="13">
@@ -1811,10 +2009,10 @@
         <v>0.4999999999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9999999999999999</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>1.346861418492051</v>
+        <v>0.05952393323149239</v>
       </c>
     </row>
     <row r="14">
@@ -1822,87 +2020,87 @@
         <v>0.4999999999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1.663021909512511</v>
+        <v>0.7688842134362875</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1.5</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8446795731606602</v>
+        <v>1.346861451155469</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1.5</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9999999999999999</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>1.249826711672721</v>
+        <v>1.663021951636361</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-2</v>
+        <v>1.5</v>
       </c>
       <c r="B17" t="n">
-        <v>-1.5</v>
+        <v>-2</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.2493448478953544</v>
+        <v>-0.2453654875561058</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.9999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="B18" t="n">
-        <v>-1.5</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.2652757070114841</v>
+        <v>0.2480898075572119</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="B19" t="n">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.3286289222298163</v>
+        <v>0.844679586527542</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="B20" t="n">
-        <v>-1.5</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.1537960145198432</v>
+        <v>1.249826735534774</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="B21" t="n">
-        <v>-1.5</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>0.08533871777854356</v>
+        <v>1.470066377341473</v>
       </c>
     </row>
     <row r="22">
@@ -1910,153 +2108,219 @@
         <v>-2</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.4999999999999999</v>
+        <v>-1.5</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.01915261667716647</v>
+        <v>-0.2493448689506815</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.4999999999999999</v>
+        <v>-1.5</v>
       </c>
       <c r="C23" t="n">
-        <v>0.3135024878383588</v>
+        <v>-0.2652757297807843</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.4999999999999999</v>
+        <v>-1.5</v>
       </c>
       <c r="C24" t="n">
-        <v>0.5039680593230298</v>
+        <v>-0.3286289528030609</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.4999999999999999</v>
+        <v>-1.5</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5774784729766154</v>
+        <v>-0.1537960389324816</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="B26" t="n">
-        <v>0.4999999999999999</v>
+        <v>-1.5</v>
       </c>
       <c r="C26" t="n">
-        <v>0.288142061936361</v>
+        <v>0.0853387031419949</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-0.9999999999999999</v>
+        <v>-2</v>
       </c>
       <c r="B27" t="n">
-        <v>0.4999999999999999</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>0.5766927919523206</v>
+        <v>-0.01915263475379844</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>0.4999999999999999</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>0.973426839804551</v>
+        <v>0.1263260740875963</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="B29" t="n">
-        <v>0.4999999999999999</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>1.11402426307113</v>
+        <v>0.3135024829190206</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>0.4999999999999999</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>1.006634086993879</v>
+        <v>0.5039680614751842</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="B31" t="n">
-        <v>1.5</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>0.6803517097375731</v>
+        <v>0.5774784758109331</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-0.9999999999999999</v>
+        <v>-2</v>
       </c>
       <c r="B32" t="n">
-        <v>1.5</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>1.086211918800821</v>
+        <v>0.288142049356817</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>1.5</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>1.505173813963901</v>
+        <v>0.576692792115349</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="B34" t="n">
-        <v>1.5</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>1.487546964144684</v>
+        <v>0.973426859118466</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>1.5</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>1.267168668838015</v>
+        <v>1.114024286770213</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>2</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.4999999999999999</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1.006634102054557</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>-2</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.6803517094502072</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>-0.9999999999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1.086211937352312</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>0</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1.505173852818356</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1.487546997918387</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>2</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1.26716868847541</v>
       </c>
     </row>
   </sheetData>
@@ -2070,7 +2334,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2103,7 +2367,7 @@
         <v>-2</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.3998262670419992</v>
+        <v>-0.3998262682133235</v>
       </c>
     </row>
     <row r="3">
@@ -2114,7 +2378,7 @@
         <v>-0.9999999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.01459010968921985</v>
+        <v>-0.01459010841871072</v>
       </c>
     </row>
     <row r="4">
@@ -2125,7 +2389,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.3715130411233524</v>
+        <v>-0.3715130475265503</v>
       </c>
     </row>
     <row r="5">
@@ -2136,18 +2400,18 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2859761890634501</v>
+        <v>0.2859761851846628</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.4999999999999999</v>
+        <v>-1.5</v>
       </c>
       <c r="B6" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.333364180305187</v>
+        <v>1.046778761770119</v>
       </c>
     </row>
     <row r="7">
@@ -2155,10 +2419,10 @@
         <v>-0.4999999999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.9999999999999999</v>
+        <v>-2</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.1689781638705185</v>
+        <v>-1.333364190470099</v>
       </c>
     </row>
     <row r="8">
@@ -2166,10 +2430,10 @@
         <v>-0.4999999999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3678130001061521</v>
+        <v>-0.1689781646748676</v>
       </c>
     </row>
     <row r="9">
@@ -2177,10 +2441,10 @@
         <v>-0.4999999999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>1.59410038252826</v>
+        <v>0.3678129985704514</v>
       </c>
     </row>
     <row r="10">
@@ -2188,21 +2452,21 @@
         <v>-0.4999999999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>2.487782698388641</v>
+        <v>1.594100387995637</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.4999999999999999</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.647062010801143</v>
+        <v>2.487782710760611</v>
       </c>
     </row>
     <row r="12">
@@ -2210,10 +2474,10 @@
         <v>0.4999999999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.9999999999999999</v>
+        <v>-2</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.2919113159664017</v>
+        <v>-1.647062024775973</v>
       </c>
     </row>
     <row r="13">
@@ -2221,10 +2485,10 @@
         <v>0.4999999999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9999999999999999</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>2.295935008338319</v>
+        <v>-0.2919113196789278</v>
       </c>
     </row>
     <row r="14">
@@ -2232,87 +2496,87 @@
         <v>0.4999999999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>2.711594682514032</v>
+        <v>1.285858924517725</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1.5</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>1.327798576675119</v>
+        <v>2.295935018544906</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1.5</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9999999999999999</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>1.53937225493248</v>
+        <v>2.711594695330288</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-2</v>
+        <v>1.5</v>
       </c>
       <c r="B17" t="n">
-        <v>-1.5</v>
+        <v>-2</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.1869225497725316</v>
+        <v>-0.700275164980847</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.9999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="B18" t="n">
-        <v>-1.5</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.2881258644589021</v>
+        <v>0.1826449441317521</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="B19" t="n">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>-1.229349715456939</v>
+        <v>1.327798582151998</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="B20" t="n">
-        <v>-1.5</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.7447207148179407</v>
+        <v>1.539372257901958</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="B21" t="n">
-        <v>-1.5</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.01858483231844032</v>
+        <v>1.499678448565177</v>
       </c>
     </row>
     <row r="22">
@@ -2320,153 +2584,219 @@
         <v>-2</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.4999999999999999</v>
+        <v>-1.5</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.3421310731792111</v>
+        <v>-0.1869225499237601</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.4999999999999999</v>
+        <v>-1.5</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2704851450942683</v>
+        <v>-0.2881258643973917</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.4999999999999999</v>
+        <v>-1.5</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7664367475708695</v>
+        <v>-1.229349725654885</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.4999999999999999</v>
+        <v>-1.5</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7483814804733869</v>
+        <v>-0.7447207214452269</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="B26" t="n">
-        <v>0.4999999999999999</v>
+        <v>-1.5</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.2873454845729853</v>
+        <v>-0.01858483360307235</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-0.9999999999999999</v>
+        <v>-2</v>
       </c>
       <c r="B27" t="n">
-        <v>0.4999999999999999</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2470144324081659</v>
+        <v>-0.3421310770421605</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>0.4999999999999999</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>1.574837614255044</v>
+        <v>-0.02356507498586263</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="B29" t="n">
-        <v>0.4999999999999999</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>1.831465558505821</v>
+        <v>0.2704851448398328</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>0.4999999999999999</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>1.144687741167967</v>
+        <v>0.7664367507608952</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="B31" t="n">
-        <v>1.5</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>0.308666837280085</v>
+        <v>0.748381482627263</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-0.9999999999999999</v>
+        <v>-2</v>
       </c>
       <c r="B32" t="n">
-        <v>1.5</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>1.341853248854953</v>
+        <v>-0.2873454910569289</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>1.5</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>2.768254849505528</v>
+        <v>0.2470144283454108</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="B34" t="n">
-        <v>1.5</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>2.098853989919366</v>
+        <v>1.574837620466897</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>1.5</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>1.060933903138714</v>
+        <v>1.831465566196827</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>2</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.4999999999999999</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1.144687742871116</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>-2</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.3086668337075055</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>-0.9999999999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1.341853252000011</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>0</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C39" t="n">
+        <v>2.768254863793687</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C40" t="n">
+        <v>2.098853996599768</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>2</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1.06093390141675</v>
       </c>
     </row>
   </sheetData>
@@ -2480,7 +2810,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2513,7 +2843,7 @@
         <v>-2</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5173638935743443</v>
+        <v>0.5173638935743493</v>
       </c>
     </row>
     <row r="3">
@@ -2524,7 +2854,7 @@
         <v>-0.9999999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5173638935743443</v>
+        <v>0.5173638935743493</v>
       </c>
     </row>
     <row r="4">
@@ -2535,7 +2865,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5173638935743443</v>
+        <v>0.5173638935743493</v>
       </c>
     </row>
     <row r="5">
@@ -2546,18 +2876,18 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5173638935743443</v>
+        <v>0.5173638935743493</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.4999999999999999</v>
+        <v>-1.5</v>
       </c>
       <c r="B6" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5173638935743443</v>
+        <v>0.5173638935743493</v>
       </c>
     </row>
     <row r="7">
@@ -2565,10 +2895,10 @@
         <v>-0.4999999999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.9999999999999999</v>
+        <v>-2</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5173638935743443</v>
+        <v>0.5173638935743493</v>
       </c>
     </row>
     <row r="8">
@@ -2576,10 +2906,10 @@
         <v>-0.4999999999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5173638935743443</v>
+        <v>0.5173638935743493</v>
       </c>
     </row>
     <row r="9">
@@ -2587,10 +2917,10 @@
         <v>-0.4999999999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5173638935743443</v>
+        <v>0.5173638935743493</v>
       </c>
     </row>
     <row r="10">
@@ -2598,21 +2928,21 @@
         <v>-0.4999999999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5173638935743443</v>
+        <v>0.5173638935743493</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.4999999999999999</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5173638935743443</v>
+        <v>0.5173638935743493</v>
       </c>
     </row>
     <row r="12">
@@ -2620,10 +2950,10 @@
         <v>0.4999999999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.9999999999999999</v>
+        <v>-2</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5173638935743443</v>
+        <v>0.5173638935743493</v>
       </c>
     </row>
     <row r="13">
@@ -2631,10 +2961,10 @@
         <v>0.4999999999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9999999999999999</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5173638935743443</v>
+        <v>0.5173638935743493</v>
       </c>
     </row>
     <row r="14">
@@ -2642,87 +2972,87 @@
         <v>0.4999999999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5173638935743443</v>
+        <v>0.5173638935743493</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1.5</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5173638935743443</v>
+        <v>0.5173638935743493</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1.5</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9999999999999999</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5173638935743443</v>
+        <v>0.5173638935743493</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-2</v>
+        <v>1.5</v>
       </c>
       <c r="B17" t="n">
-        <v>-1.5</v>
+        <v>-2</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5173638935743443</v>
+        <v>0.5173638935743493</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.9999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="B18" t="n">
-        <v>-1.5</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5173638935743443</v>
+        <v>0.5173638935743493</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="B19" t="n">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5173638935743443</v>
+        <v>0.5173638935743493</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="B20" t="n">
-        <v>-1.5</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5173638935743443</v>
+        <v>0.5173638935743493</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="B21" t="n">
-        <v>-1.5</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5173638935743443</v>
+        <v>0.5173638935743493</v>
       </c>
     </row>
     <row r="22">
@@ -2730,153 +3060,219 @@
         <v>-2</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.4999999999999999</v>
+        <v>-1.5</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5173638935743443</v>
+        <v>0.5173638935743493</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.4999999999999999</v>
+        <v>-1.5</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5173638935743443</v>
+        <v>0.5173638935743493</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.4999999999999999</v>
+        <v>-1.5</v>
       </c>
       <c r="C24" t="n">
-        <v>0.5173638935743443</v>
+        <v>0.5173638935743493</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.4999999999999999</v>
+        <v>-1.5</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5173638935743443</v>
+        <v>0.5173638935743493</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="B26" t="n">
-        <v>0.4999999999999999</v>
+        <v>-1.5</v>
       </c>
       <c r="C26" t="n">
-        <v>0.5173638935743443</v>
+        <v>0.5173638935743493</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-0.9999999999999999</v>
+        <v>-2</v>
       </c>
       <c r="B27" t="n">
-        <v>0.4999999999999999</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>0.5173638935743443</v>
+        <v>0.5173638935743493</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>0.4999999999999999</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5173638935743443</v>
+        <v>0.5173638935743493</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="B29" t="n">
-        <v>0.4999999999999999</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5173638935743443</v>
+        <v>0.5173638935743493</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>0.4999999999999999</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>0.5173638935743443</v>
+        <v>0.5173638935743493</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="B31" t="n">
-        <v>1.5</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>0.5173638935743443</v>
+        <v>0.5173638935743493</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-0.9999999999999999</v>
+        <v>-2</v>
       </c>
       <c r="B32" t="n">
-        <v>1.5</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>0.5173638935743443</v>
+        <v>0.5173638935743493</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>1.5</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>0.5173638935743443</v>
+        <v>0.5173638935743493</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="B34" t="n">
-        <v>1.5</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>0.5173638935743443</v>
+        <v>0.5173638935743493</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>1.5</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.5173638935743443</v>
+        <v>0.5173638935743493</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>2</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.4999999999999999</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.5173638935743493</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>-2</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.5173638935743493</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>-0.9999999999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.5173638935743493</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>0</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.5173638935743493</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.5173638935743493</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>2</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.5173638935743493</v>
       </c>
     </row>
   </sheetData>
